--- a/datas/自己生資料.xlsx
+++ b/datas/自己生資料.xlsx
@@ -28,154 +28,154 @@
     <t>exam3</t>
   </si>
   <si>
-    <t>王之婷</t>
-  </si>
-  <si>
-    <t>黃文賢</t>
-  </si>
-  <si>
-    <t>林俊穎</t>
-  </si>
-  <si>
-    <t>馮筱婷</t>
-  </si>
-  <si>
-    <t>吳慧娟</t>
-  </si>
-  <si>
-    <t>林宗凌</t>
-  </si>
-  <si>
-    <t>陳志任</t>
-  </si>
-  <si>
-    <t>洪偉傑</t>
-  </si>
-  <si>
-    <t>張雅雯</t>
-  </si>
-  <si>
-    <t>梁政哲</t>
-  </si>
-  <si>
-    <t>陳辰宜</t>
-  </si>
-  <si>
-    <t>王清福</t>
-  </si>
-  <si>
-    <t>彭菁治</t>
-  </si>
-  <si>
-    <t>陶江紋</t>
-  </si>
-  <si>
-    <t>郭育燕</t>
-  </si>
-  <si>
-    <t>劉銘苓</t>
-  </si>
-  <si>
-    <t>吳承安</t>
-  </si>
-  <si>
-    <t>邱貴伸</t>
-  </si>
-  <si>
-    <t>朱芃軒</t>
-  </si>
-  <si>
-    <t>楊雅能</t>
-  </si>
-  <si>
-    <t>王智瑞</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>張美君</t>
-  </si>
-  <si>
-    <t>張凱揚</t>
-  </si>
-  <si>
-    <t>林姵昀</t>
-  </si>
-  <si>
-    <t>顏儀男</t>
-  </si>
-  <si>
-    <t>張台謙</t>
-  </si>
-  <si>
-    <t>黃亭音</t>
-  </si>
-  <si>
-    <t>賴玉萍</t>
-  </si>
-  <si>
-    <t>藍苑寧</t>
-  </si>
-  <si>
-    <t>賴怡祥</t>
-  </si>
-  <si>
-    <t>馮家欣</t>
-  </si>
-  <si>
-    <t>鄭宇木</t>
-  </si>
-  <si>
-    <t>祁至蓁</t>
-  </si>
-  <si>
-    <t>王惠智</t>
-  </si>
-  <si>
-    <t>金淑慧</t>
-  </si>
-  <si>
-    <t>黃宗翰</t>
-  </si>
-  <si>
-    <t>許原伸</t>
-  </si>
-  <si>
-    <t>王淑敏</t>
-  </si>
-  <si>
-    <t>韓建廷</t>
-  </si>
-  <si>
-    <t>張任新</t>
-  </si>
-  <si>
-    <t>儲嬌歡</t>
-  </si>
-  <si>
-    <t>蔡怡孜</t>
-  </si>
-  <si>
-    <t>吳登美</t>
-  </si>
-  <si>
-    <t>徐淑恩</t>
-  </si>
-  <si>
-    <t>黃茹富</t>
-  </si>
-  <si>
-    <t>時明慧</t>
-  </si>
-  <si>
-    <t>林淑玲</t>
-  </si>
-  <si>
-    <t>黎惠雯</t>
-  </si>
-  <si>
-    <t>王意鳳</t>
+    <t>黃祥仁</t>
+  </si>
+  <si>
+    <t>黃冠仲</t>
+  </si>
+  <si>
+    <t>夏香倩</t>
+  </si>
+  <si>
+    <t>鄧力欣</t>
+  </si>
+  <si>
+    <t>羅珮如</t>
+  </si>
+  <si>
+    <t>周美雲</t>
+  </si>
+  <si>
+    <t>蔡鈺婷</t>
+  </si>
+  <si>
+    <t>林柏成</t>
+  </si>
+  <si>
+    <t>林凱婷</t>
+  </si>
+  <si>
+    <t>陳威皓</t>
+  </si>
+  <si>
+    <t>彭亞軒</t>
+  </si>
+  <si>
+    <t>何佳伸</t>
+  </si>
+  <si>
+    <t>吳莉燕</t>
+  </si>
+  <si>
+    <t>袁宗翰</t>
+  </si>
+  <si>
+    <t>梁儒義</t>
+  </si>
+  <si>
+    <t>林文馨</t>
+  </si>
+  <si>
+    <t>虞若維</t>
+  </si>
+  <si>
+    <t>彭光麟</t>
+  </si>
+  <si>
+    <t>吳育菁</t>
+  </si>
+  <si>
+    <t>徐伶秋</t>
+  </si>
+  <si>
+    <t>陳韻玫</t>
+  </si>
+  <si>
+    <t>賴駿友</t>
+  </si>
+  <si>
+    <t>陳雲卉</t>
+  </si>
+  <si>
+    <t>李淑政</t>
+  </si>
+  <si>
+    <t>張欣怡</t>
+  </si>
+  <si>
+    <t>楊凱雯</t>
+  </si>
+  <si>
+    <t>費旺興</t>
+  </si>
+  <si>
+    <t>陳筱婷</t>
+  </si>
+  <si>
+    <t>黃懿鑫</t>
+  </si>
+  <si>
+    <t>劉佳枝</t>
+  </si>
+  <si>
+    <t>郭俊芳</t>
+  </si>
+  <si>
+    <t>張冠伶</t>
+  </si>
+  <si>
+    <t>郭紀財</t>
+  </si>
+  <si>
+    <t>陳綠貴</t>
+  </si>
+  <si>
+    <t>劉志軒</t>
+  </si>
+  <si>
+    <t>蔡淑樺</t>
+  </si>
+  <si>
+    <t>黃婉弘</t>
+  </si>
+  <si>
+    <t>魏培俐</t>
+  </si>
+  <si>
+    <t>劉雅婷</t>
+  </si>
+  <si>
+    <t>邱容源</t>
+  </si>
+  <si>
+    <t>童恭方</t>
+  </si>
+  <si>
+    <t>林秋燕</t>
+  </si>
+  <si>
+    <t>黃韻婷</t>
+  </si>
+  <si>
+    <t>陳柏芳</t>
+  </si>
+  <si>
+    <t>曾秀美</t>
+  </si>
+  <si>
+    <t>黃琬佩</t>
+  </si>
+  <si>
+    <t>王幸新</t>
+  </si>
+  <si>
+    <t>楊翔璇</t>
+  </si>
+  <si>
+    <t>彭建彰</t>
+  </si>
+  <si>
+    <t>李宜瑄</t>
   </si>
 </sst>
 </file>
@@ -561,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,13 +595,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,13 +612,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E8">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,13 +680,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -697,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -714,13 +714,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E11">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -748,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -765,13 +765,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -782,13 +782,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -799,13 +799,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -816,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -833,13 +833,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -850,13 +850,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -867,13 +867,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -884,13 +884,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -901,13 +901,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -918,13 +918,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -935,13 +935,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E24">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -952,13 +952,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -969,13 +969,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -986,13 +986,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E28">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1037,13 +1037,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1054,13 +1054,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1088,13 +1088,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E33">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1105,13 +1105,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E34">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1139,13 +1139,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1156,13 +1156,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1173,13 +1173,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1207,13 +1207,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1224,13 +1224,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1258,13 +1258,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1275,13 +1275,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1292,13 +1292,13 @@
         <v>47</v>
       </c>
       <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
         <v>32</v>
-      </c>
-      <c r="D45">
-        <v>38</v>
-      </c>
-      <c r="E45">
-        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1309,13 +1309,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E46">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>49</v>
       </c>
       <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>32</v>
+      </c>
+      <c r="E47">
         <v>3</v>
-      </c>
-      <c r="D47">
-        <v>37</v>
-      </c>
-      <c r="E47">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1343,13 +1343,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D48">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1360,13 +1360,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1377,13 +1377,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E50">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1394,13 +1394,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E51">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
